--- a/medicine/Psychotrope/Stinger_(cocktail)/Stinger_(cocktail).xlsx
+++ b/medicine/Psychotrope/Stinger_(cocktail)/Stinger_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un Stinger est un digestif et un cocktail officiel de l'IBA, composé de cognac (ou de Brandy) et de crème de menthe[1].
+Un Stinger est un digestif et un cocktail officiel de l'IBA, composé de cognac (ou de Brandy) et de crème de menthe.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cocktail (ou digestif) à base de cognac est une variante des cocktails Chicago (au triple sec), French Connection (à l'Amaretto), Sidecar (au Cointreau), ou Prince of Wales (au champagne et jus d'ananas)... Il est créé avec succès, sous divers noms, dans les années 1890 aux États-Unis[2],[3],[4],[5],[6], dont « The Judge » du guide The Flowing Bowl de 1892, du barman William Schmidt[7]. Il apparaît plus tard sous le nom de Stinger dans les guides des cocktails Drinks de 1914, de Jacques Straub  [8] ou The Ideal Bartender de 1917, de Tom Bullock[9]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cocktail (ou digestif) à base de cognac est une variante des cocktails Chicago (au triple sec), French Connection (à l'Amaretto), Sidecar (au Cointreau), ou Prince of Wales (au champagne et jus d'ananas)... Il est créé avec succès, sous divers noms, dans les années 1890 aux États-Unis dont « The Judge » du guide The Flowing Bowl de 1892, du barman William Schmidt. Il apparaît plus tard sous le nom de Stinger dans les guides des cocktails Drinks de 1914, de Jacques Straub   ou The Ideal Bartender de 1917, de Tom Bullock. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Recette</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recette officielle de l'Association internationale des barmen (IBA)[10] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recette officielle de l'Association internationale des barmen (IBA) :
 5 cl de cognac (ou Brandy) ;
 2 cl de crème de menthe blanche.
 Frapper avec de la glace, puis filtrer le tout dans un verre à Martini refroidi. Ajouter éventuellement une feuille de menthe pour le décor.
@@ -577,7 +593,9 @@
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stinger Junior : avec 3 cl de cognac et 3 cl de crème de menthe.
 Stinger Senior : avec 6 cl de cognac et 3 cl de crème de menthe.
@@ -615,9 +633,11 @@
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il apparaît dans de nombreux films ou romans, en particulier de James Bond[11] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il apparaît dans de nombreux films ou romans, en particulier de James Bond :
 1947 : Honni soit qui mal y pense, d'Henry Koster, Cary Grant commande une tournée de Stingers.
 1948 : La Grande Horloge, de John Farrow.
 1950 : Le Violent, de Nicholas Ray, avec Humphrey Bogart.
@@ -652,7 +672,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1956 : Les diamants sont éternels (James Bond), de Ian Fleming.
 1963 : L'Espion qui venait du froid, de John le Carré</t>
